--- a/WHO-DATA-SETS/ExcelDataSets/20200202-sitrep-13-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200202-sitrep-13-ncov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1E17E0-CBD1-44D1-982C-F14B0322BB5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4688489D-7529-4BC1-8993-4CA9B5FF5B2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3" sheetId="3" r:id="rId1"/>
@@ -922,15 +922,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -938,38 +932,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -977,14 +947,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1338,582 +1332,586 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>9074</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>661</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>604</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>493</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>463</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>340</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="11">
         <v>333</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>262</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="11">
         <v>236</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <v>231</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="11">
         <v>225</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <v>183</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="11">
         <v>177</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="10">
         <v>159</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="11">
         <v>116</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="10">
         <v>111</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="11">
         <v>104</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="10">
         <v>99</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="11">
         <v>95</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="10">
         <v>64</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="11">
         <v>63</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="10">
         <v>56</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="11">
         <v>45</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="10">
         <v>40</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="11">
         <v>38</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="10">
         <v>28</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="11">
         <v>26</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="10">
         <v>23</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="11">
         <v>21</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="10">
         <v>14</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="11">
         <v>10</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="10">
         <v>9</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="11">
         <v>7</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="10">
         <v>1</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="12">
         <v>14411</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" ht="30">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="12">
         <v>14411</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
-      <c r="A40" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15">
-      <c r="A46" s="15"/>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15">
-      <c r="A48" s="20"/>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="20"/>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15">
-      <c r="A50" s="20"/>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15">
-      <c r="A52" s="20"/>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15">
-      <c r="A54" s="20"/>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="20"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15">
-      <c r="A56" s="20"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="13"/>
+      <c r="B56" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15">
-      <c r="A57" s="20"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15">
-      <c r="A58" s="20"/>
-      <c r="B58" s="17" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15">
-      <c r="A59" s="20"/>
-      <c r="B59" s="17" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15">
-      <c r="A60" s="20"/>
-      <c r="B60" s="17" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="17">
         <v>14557</v>
       </c>
     </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A53:A60"/>
+    <mergeCell ref="A38:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
